--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2521244.937507654</v>
+        <v>-2523939.734783502</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>249.5524964332345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>199.7933290044118</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.0229542426668</v>
+        <v>64.0716946345328</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.08598451550188</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>247.3925845603057</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>244.8650164926696</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.19911504133184</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>84.11255864320511</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>16.25205340114965</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>162.3279512320773</v>
+        <v>164.7221985280086</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>36.99137977147085</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>76.75184291340787</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812101</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>80.25286948725324</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.99480013030511</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541452</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>177.9413471369465</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652582</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972046</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317882</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>852.7397894419585</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="C2" t="n">
-        <v>852.7397894419585</v>
+        <v>673.7528084549833</v>
       </c>
       <c r="D2" t="n">
-        <v>852.7397894419585</v>
+        <v>673.7528084549833</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>673.7528084549833</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>673.7528084549833</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2235.828677487826</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.247616752006</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.247616752006</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.478961481892</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1629.478961481892</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1239.33962950608</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
         <v>1967.526114878149</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.3310369968233</v>
+        <v>1358.708154873187</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3948540689164</v>
+        <v>1189.77197194528</v>
       </c>
       <c r="D4" t="n">
-        <v>448.0282336217782</v>
+        <v>1125.053088476055</v>
       </c>
       <c r="E4" t="n">
-        <v>448.0282336217782</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="F4" t="n">
-        <v>301.1382861238678</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1518214321464</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2312.447828844291</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>2057.763340638404</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1768.346170601444</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1540.356619703427</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.979501827063</v>
+        <v>1540.356619703427</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1599.080600298115</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1981.556079034804</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1981.556079034804</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1981.556079034804</v>
       </c>
       <c r="X5" t="n">
-        <v>1985.680440362237</v>
+        <v>1608.090320773724</v>
       </c>
       <c r="Y5" t="n">
-        <v>1985.680440362237</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4644,7 +4644,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
         <v>614.5430248380227</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.6291422486028</v>
+        <v>554.7022891566839</v>
       </c>
       <c r="C7" t="n">
-        <v>537.6929593206959</v>
+        <v>385.7661062287771</v>
       </c>
       <c r="D7" t="n">
-        <v>537.6929593206959</v>
+        <v>235.6494668164413</v>
       </c>
       <c r="E7" t="n">
-        <v>537.6929593206959</v>
+        <v>235.6494668164413</v>
       </c>
       <c r="F7" t="n">
-        <v>390.8030118227855</v>
+        <v>235.6494668164413</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>67.66300212471992</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>67.66300212471992</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4753,22 +4753,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.838891429094</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>927.4217213921329</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="X7" t="n">
-        <v>927.4217213921329</v>
+        <v>957.1433331304538</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.6291422486028</v>
+        <v>736.3507539869237</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495.089731832625</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.127214892214</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>767.8615162854633</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2271.828903872559</v>
+        <v>2717.866206673494</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.689571896747</v>
+        <v>2327.726874697682</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.2461408939903</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C10" t="n">
-        <v>494.3099579660834</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1849.767434034545</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1595.082945828658</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.676735765777</v>
+        <v>1305.665775791697</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.68718486776</v>
+        <v>1077.67622489368</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.89460572423</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075791</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>696.708435085168</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>546.5917956728323</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>398.6787020904392</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>398.6787020904392</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2380.301669307225</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6127,13 +6127,13 @@
         <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6142,16 +6142,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,7 +6169,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
         <v>2438.456847547834</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6400,25 +6400,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
         <v>1483.79828551875</v>
@@ -6427,7 +6427,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,10 +6549,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380731</v>
@@ -6865,31 +6865,31 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7801,31 +7801,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>294.8344935184735</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>161.9952063397195</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>6.864855975821911</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22708,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.59251877554558</v>
+        <v>84.54377838367955</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405068</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.27126880501561</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3804465798165779</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26314,7 +26314,7 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26326,31 +26326,31 @@
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363183</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29520.00810516213</v>
+        <v>29520.00810516215</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744319</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
+        <v>16718.11565483781</v>
+      </c>
+      <c r="N4" t="n">
         <v>16718.11565483775</v>
       </c>
-      <c r="N4" t="n">
-        <v>16718.11565483778</v>
-      </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483774</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483776</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1221326.487794565</v>
+        <v>-1221790.784586589</v>
       </c>
       <c r="C6" t="n">
         <v>-207933.8651702207</v>
       </c>
       <c r="D6" t="n">
-        <v>-367949.3279182197</v>
+        <v>-367949.3279182195</v>
       </c>
       <c r="E6" t="n">
-        <v>-415083.5830307568</v>
+        <v>-415118.3209561927</v>
       </c>
       <c r="F6" t="n">
-        <v>-89671.12122340125</v>
+        <v>-89705.85914883694</v>
       </c>
       <c r="G6" t="n">
-        <v>-89671.12122340123</v>
+        <v>-89705.85914883697</v>
       </c>
       <c r="H6" t="n">
-        <v>-89671.12122340123</v>
+        <v>-89705.85914883697</v>
       </c>
       <c r="I6" t="n">
         <v>-118783.9052557778</v>
       </c>
       <c r="J6" t="n">
-        <v>-266961.3650721287</v>
+        <v>-266961.3650721286</v>
       </c>
       <c r="K6" t="n">
-        <v>-99356.18726214609</v>
+        <v>-99356.18726214602</v>
       </c>
       <c r="L6" t="n">
         <v>-147650.1572703368</v>
       </c>
       <c r="M6" t="n">
-        <v>-184411.2151976579</v>
+        <v>-184411.2151976578</v>
       </c>
       <c r="N6" t="n">
-        <v>-118783.9052557779</v>
+        <v>-118783.9052557778</v>
       </c>
       <c r="O6" t="n">
-        <v>-99356.18726214606</v>
+        <v>-99356.18726214599</v>
       </c>
       <c r="P6" t="n">
-        <v>-99356.18726214606</v>
+        <v>-99356.18726214611</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203976</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>66.16552463962697</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,7 +27591,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>38.83456956089492</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>6.180233635792462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>271.5319856371372</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>82.19404140159908</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>88.54454180275093</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>207.4031494463918</v>
+        <v>205.0089021504605</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>111.6240932467415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,13 +28065,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>209.459995292205</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="26">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145765</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>333.9544784328816</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>338.1920576279222</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>338.6542681503486</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>630.2591755145964</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065826</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312432</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>196.0580237059039</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0580237059041</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
